--- a/API/teste.xlsx
+++ b/API/teste.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32B179-A061-4683-BB75-D33698883E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="4" name="Ativos" state="visible" r:id="rId4"/>
+    <sheet name="Ativos" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">Ativos!$C$1:$C$175</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>EQUIPAMENTO</t>
   </si>
@@ -27,79 +28,58 @@
   <si>
     <t>SETOR</t>
   </si>
-  <si>
-    <t>Impressora</t>
-  </si>
-  <si>
-    <t>BRC3260251</t>
-  </si>
-  <si>
-    <t>ALMOXARIFADO</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>dag</t>
-  </si>
-  <si>
-    <t>FARMACIA</t>
-  </si>
-  <si>
-    <t>RECEPÇÃO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -111,7 +91,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,15 +549,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" defaultColWidth="8.88671875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="2" customWidth="1"/>
@@ -587,7 +567,7 @@
     <col min="7" max="18" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -598,47 +578,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -646,902 +608,902 @@
       <c r="I6" s="11"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="7"/>
       <c r="C36" s="15"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="14"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
       <c r="C39" s="16"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="17"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="18"/>
     </row>
-    <row r="94" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="18"/>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="F101" s="19"/>
     </row>
-    <row r="102" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="F112" s="19"/>
     </row>
-    <row r="113" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="F114" s="19"/>
     </row>
-    <row r="115" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="F116" s="19"/>
     </row>
-    <row r="117" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="F118" s="19"/>
     </row>
-    <row r="119" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="F120" s="19"/>
     </row>
-    <row r="121" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="F122" s="19"/>
     </row>
-    <row r="123" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="F124" s="19"/>
     </row>
-    <row r="125" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="F126" s="19"/>
     </row>
-    <row r="127" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="F130" s="19"/>
     </row>
-    <row r="131" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="F132" s="19"/>
     </row>
-    <row r="133" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="F136" s="19"/>
     </row>
-    <row r="137" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="F138" s="19"/>
     </row>
-    <row r="139" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C175"/>
-  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="59" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <autoFilter ref="C1:C175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <headerFooter>
     <oddHeader>Página &amp;P</oddHeader>
   </headerFooter>

--- a/API/teste.xlsx
+++ b/API/teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32B179-A061-4683-BB75-D33698883E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ABC54E-D6BF-40F8-8C0B-5FB8E12023D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,9 +262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -554,14 +551,14 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="4.44140625" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" style="3" customWidth="1"/>
     <col min="7" max="18" width="4.44140625" customWidth="1"/>
@@ -1084,12 +1081,12 @@
     <row r="93" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
+      <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
@@ -1126,7 +1123,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="F101" s="19"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
@@ -1137,7 +1134,7 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="F103" s="19"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
@@ -1148,7 +1145,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="F105" s="19"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
@@ -1174,7 +1171,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="F110" s="19"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
@@ -1185,7 +1182,7 @@
       <c r="A112" s="10"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="F112" s="19"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
@@ -1196,7 +1193,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="F114" s="19"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
@@ -1207,7 +1204,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
-      <c r="F116" s="19"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
@@ -1218,7 +1215,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="F118" s="19"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
@@ -1229,7 +1226,7 @@
       <c r="A120" s="10"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="F120" s="19"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
@@ -1240,7 +1237,7 @@
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="F122" s="19"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
@@ -1251,7 +1248,7 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="F124" s="19"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
@@ -1262,7 +1259,7 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="F126" s="19"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
@@ -1273,7 +1270,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="F128" s="19"/>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
@@ -1284,7 +1281,7 @@
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="F130" s="19"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
@@ -1295,7 +1292,7 @@
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="F132" s="19"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
@@ -1306,7 +1303,7 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="F134" s="19"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
@@ -1317,7 +1314,7 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="F136" s="19"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
@@ -1328,7 +1325,7 @@
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="F138" s="19"/>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
@@ -1451,7 +1448,7 @@
       <c r="C162" s="6"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="20"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
     </row>
